--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://technoverthyd-my.sharepoint.com/personal/pujitha_t_technovert_com/Documents/Documents/UiPath/OnBoarding/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pujitha.t\OneDrive - Technovert\Documents\UiPath\OnBoarding\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_6EB4CAF5627EDD8D9FCB0C46929BBE1A46A4B9B1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9FD9D02E-9333-4E5A-A05A-BC3C3E8D7629}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_6EB4CAF5627EDD8D9FCB0C46929BBE1A46A4B9B1" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{49D5A96B-EEFE-41B8-88F7-5873F26A2173}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Employee's mails with names</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>C:/Users/pujitha.t/OneDrive - Technovert/Desktop/EmployeeOnBoarding/Attachments</t>
+  </si>
+  <si>
+    <t>EmployeesData</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -596,10 +596,10 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -617,28 +617,28 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
